--- a/nama_shi-vaya.xlsx
+++ b/nama_shi-vaya.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRaaviMohanRao.MICIAN1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Mohindar\shiva_temples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91CA34E-0DC9-40E1-B234-54C63ACCFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F47D66-D8A5-41A4-B4D9-6B81779C85DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="269">
   <si>
     <t>Temple</t>
   </si>
@@ -837,6 +837,21 @@
   </si>
   <si>
     <t>Shri Singeeshwarar Swamy Temple, Mappedu</t>
+  </si>
+  <si>
+    <t>அருள்மிகு ஸ்ரீ அஞ்சனாக்க்ஷி அம்பாள் உடனுறை ஸ்ரீ கச்சபேஸ்வரர் ஸ்வாமி திருக்கோவில்</t>
+  </si>
+  <si>
+    <t>Shri Anjanakshi Ambal</t>
+  </si>
+  <si>
+    <t>Shri Kachabeswarar Swamy</t>
+  </si>
+  <si>
+    <t>Shri Kachabeswarar Swamy Temple, Thirukachur</t>
+  </si>
+  <si>
+    <t>+01-9445356399</t>
   </si>
 </sst>
 </file>
@@ -935,7 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -955,14 +970,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1347,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1406,52 +1418,33 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1460,28 +1453,30 @@
         <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1490,30 +1485,28 @@
         <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>176</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1522,30 +1515,30 @@
         <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1554,28 +1547,30 @@
         <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1584,36 +1579,28 @@
         <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>184</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1622,98 +1609,104 @@
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="K9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>192</v>
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1722,30 +1715,30 @@
         <v>12</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1754,30 +1747,30 @@
         <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1786,110 +1779,104 @@
         <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="M13" t="s">
-        <v>201</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="K14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" t="s">
+        <v>201</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="K15" t="s">
-        <v>207</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1898,30 +1885,36 @@
         <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>89</v>
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="K16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1930,30 +1923,30 @@
         <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1962,30 +1955,30 @@
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1994,30 +1987,30 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -2026,27 +2019,27 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
         <v>97</v>
@@ -2058,30 +2051,30 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -2090,42 +2083,30 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" t="s">
-        <v>221</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="M22" t="s">
-        <v>225</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2134,91 +2115,103 @@
         <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="s">
+        <v>225</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>232</v>
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
         <v>44</v>
@@ -2230,25 +2223,27 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
+        <v>170</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>44</v>
@@ -2260,31 +2255,25 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" t="s">
-        <v>233</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="K27" t="s">
-        <v>235</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>236</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
         <v>44</v>
@@ -2296,60 +2285,64 @@
         <v>12</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>238</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -2358,36 +2351,30 @@
         <v>12</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="K30" t="s">
-        <v>241</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2396,27 +2383,33 @@
         <v>12</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -2428,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
         <v>242</v>
@@ -2439,19 +2432,19 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -2460,146 +2453,202 @@
         <v>12</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="K35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>137</v>
       </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K39" t="s">
         <v>248</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="2"/>
@@ -2613,173 +2662,179 @@
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="12" t="s">
+    <row r="44" spans="1:12">
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D50" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E50" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="14" t="s">
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="15" t="s">
+    <row r="51" spans="2:8">
+      <c r="B51" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D51" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E51" t="s">
         <v>252</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="7" t="s">
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="17" t="s">
+    <row r="52" spans="2:8">
+      <c r="B52" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D52" t="s">
         <v>255</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E52" t="s">
         <v>256</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="7" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A37">
-    <sortCondition ref="A2:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N39">
+    <sortCondition ref="E3:E39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G3" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H3" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G26" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H26" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G16" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H16" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G35" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H35" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G2" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H2" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H4" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H21" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="H11" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G12" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="H12" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G6" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H6" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G37" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H37" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G10" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H10" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G7" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H7" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G30" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H30" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G22" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H22" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G9" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H9" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G14" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H14" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H28" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H49" r:id="rId73" xr:uid="{4CDE8EEC-F07D-4AD9-A86E-A1AD4CB524BB}"/>
-    <hyperlink ref="H50" r:id="rId74" xr:uid="{CDFFAB2F-F447-4AE4-AB6F-E506157D853E}"/>
-    <hyperlink ref="H51" r:id="rId75" xr:uid="{A5A96FC6-BD2C-4A03-A59B-D7EF456C0AAA}"/>
-    <hyperlink ref="H52" r:id="rId76" xr:uid="{B05C7F4C-E96E-4BB7-8B7B-AB884E049D0F}"/>
+    <hyperlink ref="G32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H33" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G17" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G3" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G5" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H5" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G28" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H28" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G38" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H38" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G13" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H13" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G7" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H7" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G39" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G11" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H11" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H8" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G31" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H31" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G23" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G10" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G15" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H15" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G29" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H29" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H50" r:id="rId73" xr:uid="{4CDE8EEC-F07D-4AD9-A86E-A1AD4CB524BB}"/>
+    <hyperlink ref="H51" r:id="rId74" xr:uid="{CDFFAB2F-F447-4AE4-AB6F-E506157D853E}"/>
+    <hyperlink ref="H52" r:id="rId75" xr:uid="{A5A96FC6-BD2C-4A03-A59B-D7EF456C0AAA}"/>
+    <hyperlink ref="H53" r:id="rId76" xr:uid="{B05C7F4C-E96E-4BB7-8B7B-AB884E049D0F}"/>
+    <hyperlink ref="G36" r:id="rId77" xr:uid="{52952E4F-E22A-4E75-9D81-5C55ABC8802D}"/>
+    <hyperlink ref="H36" r:id="rId78" xr:uid="{25FB256E-8D4E-41F3-BFDA-6C0AE68F6641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId79"/>
 </worksheet>
 </file>
--- a/nama_shi-vaya.xlsx
+++ b/nama_shi-vaya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Mohindar\shiva_temples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F47D66-D8A5-41A4-B4D9-6B81779C85DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E08E781-6CC4-4EC8-ACAB-5491B8F91A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13935" yWindow="0" windowWidth="13935" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="281">
   <si>
     <t>Temple</t>
   </si>
@@ -853,12 +853,48 @@
   <si>
     <t>+01-9445356399</t>
   </si>
+  <si>
+    <t>Shri Aavundeeswarar Swamy</t>
+  </si>
+  <si>
+    <t>Shri Amrithambika Ambal</t>
+  </si>
+  <si>
+    <t>Nemam</t>
+  </si>
+  <si>
+    <t>Shri Aavundeeswarar Swamy Temple, Nemam</t>
+  </si>
+  <si>
+    <t>அருள்மிகு ஸ்ரீ அமிர்தாம்பிகை அம்பாள் உடனுறை ஸ்ரீ ஆவுண்டீஸ்வரர்  ஸ்வாமி திருக்கோவில்</t>
+  </si>
+  <si>
+    <t>+91-9840770248</t>
+  </si>
+  <si>
+    <t>+91-9555770579</t>
+  </si>
+  <si>
+    <t>+91-9444943644</t>
+  </si>
+  <si>
+    <t>+91-9444325093</t>
+  </si>
+  <si>
+    <t>+91-9894486890</t>
+  </si>
+  <si>
+    <t>+91-9444164108</t>
+  </si>
+  <si>
+    <t>+91-9443253325</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -922,6 +958,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -950,7 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -976,6 +1019,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1359,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1582,7 +1626,9 @@
         <v>134</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
     </row>
@@ -2584,7 +2630,9 @@
         <v>94</v>
       </c>
       <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="J37" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="K37" s="10"/>
       <c r="L37" s="11"/>
     </row>
@@ -2614,7 +2662,9 @@
         <v>125</v>
       </c>
       <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
+      <c r="J38" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
     </row>
@@ -2666,7 +2716,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:14">
       <c r="B50" s="12" t="s">
         <v>165</v>
       </c>
@@ -2687,7 +2737,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:14">
       <c r="B51" s="13" t="s">
         <v>250</v>
       </c>
@@ -2708,7 +2758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:14">
       <c r="B52" s="15" t="s">
         <v>253</v>
       </c>
@@ -2729,7 +2779,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:14">
       <c r="B53" s="16" t="s">
         <v>259</v>
       </c>
@@ -2748,6 +2798,41 @@
       <c r="G53" s="10"/>
       <c r="H53" s="7" t="s">
         <v>263</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2833,8 +2918,9 @@
     <hyperlink ref="H53" r:id="rId76" xr:uid="{B05C7F4C-E96E-4BB7-8B7B-AB884E049D0F}"/>
     <hyperlink ref="G36" r:id="rId77" xr:uid="{52952E4F-E22A-4E75-9D81-5C55ABC8802D}"/>
     <hyperlink ref="H36" r:id="rId78" xr:uid="{25FB256E-8D4E-41F3-BFDA-6C0AE68F6641}"/>
+    <hyperlink ref="H54" r:id="rId79" xr:uid="{4966F435-DF39-4F95-A013-A60EB2686F6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId80"/>
 </worksheet>
 </file>